--- a/BE/data/Courses Masterdata.xlsx
+++ b/BE/data/Courses Masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/shubham_kargeti_nagarro_com/Documents/Desktop/AI Learning App/BE-MasterBranch/BE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31936DB6-1694-447D-B4C8-C5DD35CD232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{31936DB6-1694-447D-B4C8-C5DD35CD232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105C8857-5D32-48D7-B956-DCB716117EB6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4235" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="1339">
   <si>
     <t>Pathway Display Name</t>
   </si>
@@ -4015,6 +4015,33 @@
   </si>
   <si>
     <t>In this collection, we have compiled a list of skills that are considered to be good to have skills for SharePoint</t>
+  </si>
+  <si>
+    <t>Course Level</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Beginner/Intermediate</t>
+  </si>
+  <si>
+    <t>Beginner/Intermediate/Advanced</t>
+  </si>
+  <si>
+    <t>Intermediate/Advanced</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Beginner/Advanced</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -4088,6 +4115,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4353,10 +4384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:I573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4367,11 +4398,12 @@
     <col min="4" max="4" width="40.08984375" customWidth="1"/>
     <col min="5" max="5" width="41.453125" customWidth="1"/>
     <col min="6" max="6" width="17.36328125" customWidth="1"/>
-    <col min="7" max="7" width="125.54296875" customWidth="1"/>
+    <col min="7" max="7" width="136" customWidth="1"/>
     <col min="8" max="8" width="112" customWidth="1"/>
+    <col min="9" max="9" width="29.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4396,8 +4428,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4422,8 +4457,11 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4448,8 +4486,11 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4474,8 +4515,11 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4500,8 +4544,11 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4526,8 +4573,11 @@
       <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -4552,8 +4602,11 @@
       <c r="H7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -4578,8 +4631,11 @@
       <c r="H8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -4604,8 +4660,11 @@
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -4630,8 +4689,11 @@
       <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -4656,8 +4718,11 @@
       <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -4682,8 +4747,11 @@
       <c r="H12" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -4708,8 +4776,11 @@
       <c r="H13" s="2" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -4734,8 +4805,11 @@
       <c r="H14" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -4760,8 +4834,11 @@
       <c r="H15" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -4786,8 +4863,11 @@
       <c r="H16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -4812,8 +4892,11 @@
       <c r="H17" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -4838,8 +4921,11 @@
       <c r="H18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -4864,8 +4950,11 @@
       <c r="H19" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
@@ -4890,8 +4979,11 @@
       <c r="H20" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -4916,8 +5008,11 @@
       <c r="H21" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -4942,8 +5037,11 @@
       <c r="H22" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -4968,8 +5066,11 @@
       <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -4994,8 +5095,11 @@
       <c r="H24" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I24" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -5020,8 +5124,11 @@
       <c r="H25" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I25" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -5046,8 +5153,11 @@
       <c r="H26" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I26" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
@@ -5072,8 +5182,11 @@
       <c r="H27" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I27" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -5098,8 +5211,11 @@
       <c r="H28" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I28" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -5124,8 +5240,11 @@
       <c r="H29" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -5150,8 +5269,11 @@
       <c r="H30" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I30" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>100</v>
       </c>
@@ -5176,8 +5298,11 @@
       <c r="H31" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I31" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>104</v>
       </c>
@@ -5202,8 +5327,11 @@
       <c r="H32" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I32" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>107</v>
       </c>
@@ -5228,8 +5356,11 @@
       <c r="H33" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I33" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -5254,8 +5385,11 @@
       <c r="H34" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I34" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -5280,8 +5414,11 @@
       <c r="H35" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I35" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -5306,8 +5443,11 @@
       <c r="H36" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I36" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
@@ -5332,8 +5472,11 @@
       <c r="H37" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I37" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
@@ -5358,8 +5501,11 @@
       <c r="H38" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I38" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -5384,8 +5530,11 @@
       <c r="H39" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -5410,8 +5559,11 @@
       <c r="H40" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>131</v>
       </c>
@@ -5436,8 +5588,11 @@
       <c r="H41" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -5462,8 +5617,11 @@
       <c r="H42" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I42" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -5488,8 +5646,11 @@
       <c r="H43" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I43" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
@@ -5514,8 +5675,11 @@
       <c r="H44" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I44" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>146</v>
       </c>
@@ -5540,8 +5704,11 @@
       <c r="H45" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>149</v>
       </c>
@@ -5566,8 +5733,11 @@
       <c r="H46" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>153</v>
       </c>
@@ -5592,8 +5762,11 @@
       <c r="H47" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I47" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>156</v>
       </c>
@@ -5618,8 +5791,11 @@
       <c r="H48" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I48" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
@@ -5644,8 +5820,11 @@
       <c r="H49" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I49" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -5670,8 +5849,11 @@
       <c r="H50" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I50" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
@@ -5696,8 +5878,11 @@
       <c r="H51" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I51" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>168</v>
       </c>
@@ -5722,8 +5907,11 @@
       <c r="H52" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I52" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>171</v>
       </c>
@@ -5748,8 +5936,11 @@
       <c r="H53" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>174</v>
       </c>
@@ -5774,8 +5965,11 @@
       <c r="H54" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>177</v>
       </c>
@@ -5800,8 +5994,11 @@
       <c r="H55" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>180</v>
       </c>
@@ -5826,8 +6023,11 @@
       <c r="H56" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>182</v>
       </c>
@@ -5852,8 +6052,11 @@
       <c r="H57" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I57" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
@@ -5878,8 +6081,11 @@
       <c r="H58" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>188</v>
       </c>
@@ -5904,8 +6110,11 @@
       <c r="H59" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>189</v>
       </c>
@@ -5930,8 +6139,11 @@
       <c r="H60" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>192</v>
       </c>
@@ -5956,8 +6168,11 @@
       <c r="H61" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I61" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -5982,8 +6197,11 @@
       <c r="H62" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I62" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -6008,8 +6226,11 @@
       <c r="H63" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I63" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -6034,8 +6255,11 @@
       <c r="H64" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I64" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -6060,8 +6284,11 @@
       <c r="H65" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>204</v>
       </c>
@@ -6086,8 +6313,11 @@
       <c r="H66" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I66" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>207</v>
       </c>
@@ -6112,8 +6342,11 @@
       <c r="H67" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I67" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -6138,8 +6371,11 @@
       <c r="H68" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I68" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -6164,8 +6400,11 @@
       <c r="H69" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I69" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -6190,8 +6429,11 @@
       <c r="H70" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I70" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -6216,8 +6458,11 @@
       <c r="H71" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I71" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>220</v>
       </c>
@@ -6242,8 +6487,11 @@
       <c r="H72" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I72" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>223</v>
       </c>
@@ -6268,8 +6516,11 @@
       <c r="H73" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I73" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -6294,8 +6545,11 @@
       <c r="H74" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -6320,8 +6574,11 @@
       <c r="H75" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I75" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -6346,8 +6603,11 @@
       <c r="H76" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I76" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -6372,8 +6632,11 @@
       <c r="H77" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I77" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>234</v>
       </c>
@@ -6398,8 +6661,11 @@
       <c r="H78" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I78" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>238</v>
       </c>
@@ -6424,8 +6690,11 @@
       <c r="H79" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I79" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -6450,8 +6719,11 @@
       <c r="H80" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I80" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
@@ -6476,8 +6748,11 @@
       <c r="H81" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I81" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>244</v>
       </c>
@@ -6502,8 +6777,11 @@
       <c r="H82" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I82" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>245</v>
       </c>
@@ -6528,8 +6806,11 @@
       <c r="H83" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I83" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>248</v>
       </c>
@@ -6554,8 +6835,11 @@
       <c r="H84" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I84" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>251</v>
       </c>
@@ -6580,8 +6864,11 @@
       <c r="H85" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I85" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
@@ -6606,8 +6893,11 @@
       <c r="H86" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I86" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>256</v>
       </c>
@@ -6632,8 +6922,11 @@
       <c r="H87" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I87" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>257</v>
       </c>
@@ -6658,8 +6951,11 @@
       <c r="H88" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I88" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>258</v>
       </c>
@@ -6684,8 +6980,11 @@
       <c r="H89" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I89" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>259</v>
       </c>
@@ -6710,8 +7009,11 @@
       <c r="H90" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I90" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>260</v>
       </c>
@@ -6736,8 +7038,11 @@
       <c r="H91" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I91" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>263</v>
       </c>
@@ -6762,8 +7067,11 @@
       <c r="H92" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I92" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>264</v>
       </c>
@@ -6788,8 +7096,11 @@
       <c r="H93" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I93" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>265</v>
       </c>
@@ -6814,8 +7125,11 @@
       <c r="H94" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I94" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>266</v>
       </c>
@@ -6840,8 +7154,11 @@
       <c r="H95" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>267</v>
       </c>
@@ -6866,8 +7183,11 @@
       <c r="H96" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I96" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>270</v>
       </c>
@@ -6892,8 +7212,11 @@
       <c r="H97" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>271</v>
       </c>
@@ -6918,8 +7241,11 @@
       <c r="H98" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I98" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>274</v>
       </c>
@@ -6944,8 +7270,11 @@
       <c r="H99" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I99" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>277</v>
       </c>
@@ -6970,8 +7299,11 @@
       <c r="H100" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I100" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>281</v>
       </c>
@@ -6996,8 +7328,11 @@
       <c r="H101" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I101" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>284</v>
       </c>
@@ -7022,8 +7357,11 @@
       <c r="H102" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I102" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>287</v>
       </c>
@@ -7048,8 +7386,11 @@
       <c r="H103" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I103" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>290</v>
       </c>
@@ -7074,8 +7415,11 @@
       <c r="H104" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I104" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>293</v>
       </c>
@@ -7100,8 +7444,11 @@
       <c r="H105" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I105" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>296</v>
       </c>
@@ -7126,8 +7473,11 @@
       <c r="H106" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I106" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>299</v>
       </c>
@@ -7152,8 +7502,11 @@
       <c r="H107" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I107" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>302</v>
       </c>
@@ -7178,8 +7531,11 @@
       <c r="H108" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I108" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>305</v>
       </c>
@@ -7204,8 +7560,11 @@
       <c r="H109" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I109" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>308</v>
       </c>
@@ -7230,8 +7589,11 @@
       <c r="H110" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I110" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>311</v>
       </c>
@@ -7256,8 +7618,11 @@
       <c r="H111" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I111" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>314</v>
       </c>
@@ -7282,8 +7647,11 @@
       <c r="H112" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I112" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>317</v>
       </c>
@@ -7308,8 +7676,11 @@
       <c r="H113" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I113" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>320</v>
       </c>
@@ -7334,8 +7705,11 @@
       <c r="H114" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I114" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>321</v>
       </c>
@@ -7360,8 +7734,11 @@
       <c r="H115" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I115" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>325</v>
       </c>
@@ -7386,8 +7763,11 @@
       <c r="H116" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I116" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>326</v>
       </c>
@@ -7412,8 +7792,11 @@
       <c r="H117" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I117" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>329</v>
       </c>
@@ -7438,8 +7821,11 @@
       <c r="H118" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I118" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>330</v>
       </c>
@@ -7464,8 +7850,11 @@
       <c r="H119" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I119" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>331</v>
       </c>
@@ -7490,8 +7879,11 @@
       <c r="H120" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I120" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>334</v>
       </c>
@@ -7516,8 +7908,11 @@
       <c r="H121" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I121" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>337</v>
       </c>
@@ -7542,8 +7937,11 @@
       <c r="H122" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I122" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>340</v>
       </c>
@@ -7568,8 +7966,11 @@
       <c r="H123" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I123" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>343</v>
       </c>
@@ -7594,8 +7995,11 @@
       <c r="H124" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I124" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>346</v>
       </c>
@@ -7620,8 +8024,11 @@
       <c r="H125" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I125" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>349</v>
       </c>
@@ -7646,8 +8053,11 @@
       <c r="H126" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I126" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>352</v>
       </c>
@@ -7672,8 +8082,11 @@
       <c r="H127" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I127" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>355</v>
       </c>
@@ -7698,8 +8111,11 @@
       <c r="H128" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I128" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>358</v>
       </c>
@@ -7724,8 +8140,11 @@
       <c r="H129" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I129" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>362</v>
       </c>
@@ -7750,8 +8169,11 @@
       <c r="H130" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>366</v>
       </c>
@@ -7776,8 +8198,11 @@
       <c r="H131" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I131" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>367</v>
       </c>
@@ -7802,8 +8227,11 @@
       <c r="H132" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I132" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>368</v>
       </c>
@@ -7828,8 +8256,11 @@
       <c r="H133" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I133" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>371</v>
       </c>
@@ -7854,8 +8285,11 @@
       <c r="H134" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I134" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>374</v>
       </c>
@@ -7880,8 +8314,11 @@
       <c r="H135" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>377</v>
       </c>
@@ -7906,8 +8343,11 @@
       <c r="H136" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I136" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>381</v>
       </c>
@@ -7932,8 +8372,11 @@
       <c r="H137" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I137" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>385</v>
       </c>
@@ -7958,8 +8401,11 @@
       <c r="H138" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I138" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>388</v>
       </c>
@@ -7984,8 +8430,11 @@
       <c r="H139" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I139" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>391</v>
       </c>
@@ -8010,8 +8459,11 @@
       <c r="H140" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I140" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>392</v>
       </c>
@@ -8036,8 +8488,11 @@
       <c r="H141" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I141" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>393</v>
       </c>
@@ -8062,8 +8517,11 @@
       <c r="H142" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I142" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>397</v>
       </c>
@@ -8088,8 +8546,11 @@
       <c r="H143" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I143" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>398</v>
       </c>
@@ -8114,8 +8575,11 @@
       <c r="H144" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I144" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>401</v>
       </c>
@@ -8140,8 +8604,11 @@
       <c r="H145" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I145" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>402</v>
       </c>
@@ -8166,8 +8633,11 @@
       <c r="H146" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I146" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>403</v>
       </c>
@@ -8192,8 +8662,11 @@
       <c r="H147" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I147" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>404</v>
       </c>
@@ -8218,8 +8691,11 @@
       <c r="H148" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>405</v>
       </c>
@@ -8244,8 +8720,11 @@
       <c r="H149" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I149" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>406</v>
       </c>
@@ -8270,8 +8749,11 @@
       <c r="H150" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I150" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>407</v>
       </c>
@@ -8296,8 +8778,11 @@
       <c r="H151" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I151" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>408</v>
       </c>
@@ -8322,8 +8807,11 @@
       <c r="H152" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I152" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>409</v>
       </c>
@@ -8348,8 +8836,11 @@
       <c r="H153" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I153" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>410</v>
       </c>
@@ -8374,8 +8865,11 @@
       <c r="H154" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I154" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>411</v>
       </c>
@@ -8400,8 +8894,11 @@
       <c r="H155" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I155" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>412</v>
       </c>
@@ -8426,8 +8923,11 @@
       <c r="H156" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I156" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>413</v>
       </c>
@@ -8452,8 +8952,11 @@
       <c r="H157" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I157" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>414</v>
       </c>
@@ -8478,8 +8981,11 @@
       <c r="H158" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I158" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>415</v>
       </c>
@@ -8504,8 +9010,11 @@
       <c r="H159" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I159" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>419</v>
       </c>
@@ -8530,8 +9039,11 @@
       <c r="H160" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I160" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>420</v>
       </c>
@@ -8556,8 +9068,11 @@
       <c r="H161" s="1" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I161" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
@@ -8582,8 +9097,11 @@
       <c r="H162" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I162" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>426</v>
       </c>
@@ -8608,8 +9126,11 @@
       <c r="H163" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I163" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>429</v>
       </c>
@@ -8634,8 +9155,11 @@
       <c r="H164" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I164" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>430</v>
       </c>
@@ -8660,8 +9184,11 @@
       <c r="H165" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I165" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>433</v>
       </c>
@@ -8686,8 +9213,11 @@
       <c r="H166" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I166" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>434</v>
       </c>
@@ -8712,8 +9242,11 @@
       <c r="H167" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I167" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -8738,8 +9271,11 @@
       <c r="H168" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I168" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>440</v>
       </c>
@@ -8764,8 +9300,11 @@
       <c r="H169" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I169" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>443</v>
       </c>
@@ -8790,8 +9329,11 @@
       <c r="H170" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I170" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -8816,8 +9358,11 @@
       <c r="H171" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I171" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>449</v>
       </c>
@@ -8842,8 +9387,11 @@
       <c r="H172" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I172" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>450</v>
       </c>
@@ -8868,8 +9416,11 @@
       <c r="H173" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I173" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>451</v>
       </c>
@@ -8894,8 +9445,11 @@
       <c r="H174" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I174" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>452</v>
       </c>
@@ -8920,8 +9474,11 @@
       <c r="H175" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I175" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>455</v>
       </c>
@@ -8946,8 +9503,11 @@
       <c r="H176" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I176" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>458</v>
       </c>
@@ -8972,8 +9532,11 @@
       <c r="H177" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I177" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>461</v>
       </c>
@@ -8998,8 +9561,11 @@
       <c r="H178" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I178" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>464</v>
       </c>
@@ -9024,8 +9590,11 @@
       <c r="H179" s="1" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I179" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>467</v>
       </c>
@@ -9050,8 +9619,11 @@
       <c r="H180" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I180" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>468</v>
       </c>
@@ -9076,8 +9648,11 @@
       <c r="H181" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I181" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>469</v>
       </c>
@@ -9102,8 +9677,11 @@
       <c r="H182" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I182" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>472</v>
       </c>
@@ -9128,8 +9706,11 @@
       <c r="H183" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I183" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>475</v>
       </c>
@@ -9154,8 +9735,11 @@
       <c r="H184" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I184" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>478</v>
       </c>
@@ -9180,8 +9764,11 @@
       <c r="H185" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I185" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>481</v>
       </c>
@@ -9206,8 +9793,11 @@
       <c r="H186" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I186" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>484</v>
       </c>
@@ -9232,8 +9822,11 @@
       <c r="H187" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I187" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>487</v>
       </c>
@@ -9258,8 +9851,11 @@
       <c r="H188" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I188" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>490</v>
       </c>
@@ -9284,8 +9880,11 @@
       <c r="H189" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I189" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>493</v>
       </c>
@@ -9310,8 +9909,11 @@
       <c r="H190" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I190" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>496</v>
       </c>
@@ -9336,8 +9938,11 @@
       <c r="H191" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I191" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>499</v>
       </c>
@@ -9362,8 +9967,11 @@
       <c r="H192" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I192" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>502</v>
       </c>
@@ -9388,8 +9996,11 @@
       <c r="H193" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I193" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>505</v>
       </c>
@@ -9414,8 +10025,11 @@
       <c r="H194" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I194" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>508</v>
       </c>
@@ -9440,8 +10054,11 @@
       <c r="H195" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I195" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>511</v>
       </c>
@@ -9466,8 +10083,11 @@
       <c r="H196" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I196" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>514</v>
       </c>
@@ -9492,8 +10112,11 @@
       <c r="H197" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I197" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>517</v>
       </c>
@@ -9518,8 +10141,11 @@
       <c r="H198" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I198" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>520</v>
       </c>
@@ -9544,8 +10170,11 @@
       <c r="H199" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I199" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>523</v>
       </c>
@@ -9570,8 +10199,11 @@
       <c r="H200" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I200" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>524</v>
       </c>
@@ -9596,8 +10228,11 @@
       <c r="H201" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I201" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>525</v>
       </c>
@@ -9622,8 +10257,11 @@
       <c r="H202" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I202" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>526</v>
       </c>
@@ -9648,8 +10286,11 @@
       <c r="H203" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I203" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>527</v>
       </c>
@@ -9674,8 +10315,11 @@
       <c r="H204" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I204" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>528</v>
       </c>
@@ -9700,8 +10344,11 @@
       <c r="H205" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I205" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>529</v>
       </c>
@@ -9726,8 +10373,11 @@
       <c r="H206" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I206" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>532</v>
       </c>
@@ -9752,8 +10402,11 @@
       <c r="H207" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I207" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>533</v>
       </c>
@@ -9778,8 +10431,11 @@
       <c r="H208" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I208" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>534</v>
       </c>
@@ -9804,8 +10460,11 @@
       <c r="H209" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I209" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>535</v>
       </c>
@@ -9830,8 +10489,11 @@
       <c r="H210" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I210" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>536</v>
       </c>
@@ -9856,8 +10518,11 @@
       <c r="H211" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I211" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>540</v>
       </c>
@@ -9882,8 +10547,11 @@
       <c r="H212" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I212" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>541</v>
       </c>
@@ -9908,8 +10576,11 @@
       <c r="H213" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I213" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>542</v>
       </c>
@@ -9934,8 +10605,11 @@
       <c r="H214" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I214" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>545</v>
       </c>
@@ -9960,8 +10634,11 @@
       <c r="H215" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I215" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>548</v>
       </c>
@@ -9986,8 +10663,11 @@
       <c r="H216" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I216" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>549</v>
       </c>
@@ -10012,8 +10692,11 @@
       <c r="H217" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I217" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>550</v>
       </c>
@@ -10038,8 +10721,11 @@
       <c r="H218" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I218" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>553</v>
       </c>
@@ -10064,8 +10750,11 @@
       <c r="H219" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I219" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>554</v>
       </c>
@@ -10088,8 +10777,11 @@
       <c r="H220" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I220" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>557</v>
       </c>
@@ -10114,8 +10806,11 @@
       <c r="H221" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I221" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>560</v>
       </c>
@@ -10140,8 +10835,11 @@
       <c r="H222" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I222" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>563</v>
       </c>
@@ -10166,8 +10864,11 @@
       <c r="H223" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I223" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>566</v>
       </c>
@@ -10192,8 +10893,11 @@
       <c r="H224" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I224" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>569</v>
       </c>
@@ -10218,8 +10922,11 @@
       <c r="H225" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I225" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>572</v>
       </c>
@@ -10244,8 +10951,11 @@
       <c r="H226" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I226" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>573</v>
       </c>
@@ -10270,8 +10980,11 @@
       <c r="H227" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I227" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>574</v>
       </c>
@@ -10296,8 +11009,11 @@
       <c r="H228" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I228" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>578</v>
       </c>
@@ -10322,8 +11038,11 @@
       <c r="H229" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I229" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>579</v>
       </c>
@@ -10348,8 +11067,11 @@
       <c r="H230" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I230" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>582</v>
       </c>
@@ -10374,8 +11096,11 @@
       <c r="H231" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I231" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>586</v>
       </c>
@@ -10400,8 +11125,11 @@
       <c r="H232" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I232" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>587</v>
       </c>
@@ -10426,8 +11154,11 @@
       <c r="H233" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I233" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>588</v>
       </c>
@@ -10452,8 +11183,11 @@
       <c r="H234" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I234" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>589</v>
       </c>
@@ -10478,8 +11212,11 @@
       <c r="H235" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I235" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>592</v>
       </c>
@@ -10504,8 +11241,11 @@
       <c r="H236" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I236" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>593</v>
       </c>
@@ -10530,8 +11270,11 @@
       <c r="H237" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I237" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>596</v>
       </c>
@@ -10556,8 +11299,11 @@
       <c r="H238" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I238" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>597</v>
       </c>
@@ -10582,8 +11328,11 @@
       <c r="H239" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I239" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>600</v>
       </c>
@@ -10608,8 +11357,11 @@
       <c r="H240" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I240" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>601</v>
       </c>
@@ -10634,8 +11386,11 @@
       <c r="H241" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I241" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>605</v>
       </c>
@@ -10660,8 +11415,11 @@
       <c r="H242" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I242" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>609</v>
       </c>
@@ -10686,8 +11444,11 @@
       <c r="H243" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I243" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>612</v>
       </c>
@@ -10712,8 +11473,11 @@
       <c r="H244" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I244" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>613</v>
       </c>
@@ -10738,8 +11502,11 @@
       <c r="H245" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I245" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>616</v>
       </c>
@@ -10764,8 +11531,11 @@
       <c r="H246" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I246" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>620</v>
       </c>
@@ -10790,8 +11560,11 @@
       <c r="H247" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I247" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>623</v>
       </c>
@@ -10816,8 +11589,11 @@
       <c r="H248" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I248" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>624</v>
       </c>
@@ -10842,8 +11618,11 @@
       <c r="H249" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I249" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>627</v>
       </c>
@@ -10868,8 +11647,11 @@
       <c r="H250" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I250" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>630</v>
       </c>
@@ -10894,8 +11676,11 @@
       <c r="H251" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I251" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>631</v>
       </c>
@@ -10920,8 +11705,11 @@
       <c r="H252" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I252" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>634</v>
       </c>
@@ -10946,8 +11734,11 @@
       <c r="H253" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I253" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>635</v>
       </c>
@@ -10972,8 +11763,11 @@
       <c r="H254" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I254" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>638</v>
       </c>
@@ -10998,8 +11792,11 @@
       <c r="H255" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I255" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>641</v>
       </c>
@@ -11024,8 +11821,11 @@
       <c r="H256" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I256" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>642</v>
       </c>
@@ -11050,8 +11850,11 @@
       <c r="H257" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I257" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>643</v>
       </c>
@@ -11076,8 +11879,11 @@
       <c r="H258" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I258" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>646</v>
       </c>
@@ -11102,8 +11908,11 @@
       <c r="H259" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I259" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>649</v>
       </c>
@@ -11128,8 +11937,11 @@
       <c r="H260" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I260" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>652</v>
       </c>
@@ -11154,8 +11966,11 @@
       <c r="H261" s="1" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I261" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>655</v>
       </c>
@@ -11180,8 +11995,11 @@
       <c r="H262" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I262" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>658</v>
       </c>
@@ -11206,8 +12024,11 @@
       <c r="H263" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I263" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>661</v>
       </c>
@@ -11232,8 +12053,11 @@
       <c r="H264" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I264" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>662</v>
       </c>
@@ -11258,8 +12082,11 @@
       <c r="H265" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I265" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>665</v>
       </c>
@@ -11284,8 +12111,11 @@
       <c r="H266" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I266" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>668</v>
       </c>
@@ -11310,8 +12140,11 @@
       <c r="H267" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I267" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>671</v>
       </c>
@@ -11336,8 +12169,11 @@
       <c r="H268" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I268" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>674</v>
       </c>
@@ -11362,8 +12198,11 @@
       <c r="H269" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I269" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>675</v>
       </c>
@@ -11388,8 +12227,11 @@
       <c r="H270" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I270" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>676</v>
       </c>
@@ -11414,8 +12256,11 @@
       <c r="H271" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I271" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>677</v>
       </c>
@@ -11440,8 +12285,11 @@
       <c r="H272" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I272" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>678</v>
       </c>
@@ -11466,8 +12314,11 @@
       <c r="H273" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I273" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>681</v>
       </c>
@@ -11492,8 +12343,11 @@
       <c r="H274" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I274" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>684</v>
       </c>
@@ -11518,8 +12372,11 @@
       <c r="H275" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I275" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>687</v>
       </c>
@@ -11544,8 +12401,11 @@
       <c r="H276" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I276" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>688</v>
       </c>
@@ -11570,8 +12430,11 @@
       <c r="H277" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I277" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>691</v>
       </c>
@@ -11596,8 +12459,11 @@
       <c r="H278" s="1" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I278" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>695</v>
       </c>
@@ -11622,8 +12488,11 @@
       <c r="H279" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I279" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>698</v>
       </c>
@@ -11648,8 +12517,11 @@
       <c r="H280" s="1" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I280" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>701</v>
       </c>
@@ -11674,8 +12546,11 @@
       <c r="H281" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I281" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>704</v>
       </c>
@@ -11700,8 +12575,11 @@
       <c r="H282" s="1" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I282" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>707</v>
       </c>
@@ -11726,8 +12604,11 @@
       <c r="H283" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I283" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>710</v>
       </c>
@@ -11752,8 +12633,11 @@
       <c r="H284" s="1" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I284" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>713</v>
       </c>
@@ -11778,8 +12662,11 @@
       <c r="H285" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I285" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>716</v>
       </c>
@@ -11804,8 +12691,11 @@
       <c r="H286" s="1" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I286" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>719</v>
       </c>
@@ -11830,8 +12720,11 @@
       <c r="H287" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I287" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>722</v>
       </c>
@@ -11856,8 +12749,11 @@
       <c r="H288" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I288" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>726</v>
       </c>
@@ -11882,8 +12778,11 @@
       <c r="H289" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I289" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>730</v>
       </c>
@@ -11908,8 +12807,11 @@
       <c r="H290" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I290" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>731</v>
       </c>
@@ -11934,8 +12836,11 @@
       <c r="H291" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I291" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>732</v>
       </c>
@@ -11960,8 +12865,11 @@
       <c r="H292" s="1" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I292" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>735</v>
       </c>
@@ -11986,8 +12894,11 @@
       <c r="H293" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I293" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>738</v>
       </c>
@@ -12012,8 +12923,11 @@
       <c r="H294" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I294" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>739</v>
       </c>
@@ -12038,8 +12952,11 @@
       <c r="H295" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I295" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>740</v>
       </c>
@@ -12064,8 +12981,11 @@
       <c r="H296" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I296" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>743</v>
       </c>
@@ -12090,8 +13010,11 @@
       <c r="H297" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I297" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>746</v>
       </c>
@@ -12116,8 +13039,11 @@
       <c r="H298" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I298" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>749</v>
       </c>
@@ -12142,8 +13068,11 @@
       <c r="H299" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I299" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>752</v>
       </c>
@@ -12168,8 +13097,11 @@
       <c r="H300" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I300" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>753</v>
       </c>
@@ -12194,8 +13126,11 @@
       <c r="H301" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I301" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>754</v>
       </c>
@@ -12220,8 +13155,11 @@
       <c r="H302" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I302" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>755</v>
       </c>
@@ -12246,8 +13184,11 @@
       <c r="H303" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I303" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>758</v>
       </c>
@@ -12272,8 +13213,11 @@
       <c r="H304" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I304" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>761</v>
       </c>
@@ -12298,8 +13242,11 @@
       <c r="H305" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I305" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>764</v>
       </c>
@@ -12324,8 +13271,11 @@
       <c r="H306" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I306" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>767</v>
       </c>
@@ -12350,8 +13300,11 @@
       <c r="H307" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I307" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>770</v>
       </c>
@@ -12376,8 +13329,11 @@
       <c r="H308" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I308" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>773</v>
       </c>
@@ -12402,8 +13358,11 @@
       <c r="H309" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I309" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>774</v>
       </c>
@@ -12428,8 +13387,11 @@
       <c r="H310" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I310" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>775</v>
       </c>
@@ -12454,8 +13416,11 @@
       <c r="H311" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I311" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>776</v>
       </c>
@@ -12480,8 +13445,11 @@
       <c r="H312" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I312" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>779</v>
       </c>
@@ -12506,8 +13474,11 @@
       <c r="H313" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I313" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>780</v>
       </c>
@@ -12532,8 +13503,11 @@
       <c r="H314" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I314" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>783</v>
       </c>
@@ -12558,8 +13532,11 @@
       <c r="H315" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I315" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>786</v>
       </c>
@@ -12584,8 +13561,11 @@
       <c r="H316" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I316" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>787</v>
       </c>
@@ -12610,8 +13590,11 @@
       <c r="H317" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I317" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>790</v>
       </c>
@@ -12636,8 +13619,11 @@
       <c r="H318" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I318" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>793</v>
       </c>
@@ -12662,8 +13648,11 @@
       <c r="H319" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I319" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>796</v>
       </c>
@@ -12688,8 +13677,11 @@
       <c r="H320" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I320" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>799</v>
       </c>
@@ -12714,8 +13706,11 @@
       <c r="H321" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I321" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>802</v>
       </c>
@@ -12740,8 +13735,11 @@
       <c r="H322" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I322" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>803</v>
       </c>
@@ -12766,8 +13764,11 @@
       <c r="H323" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I323" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>806</v>
       </c>
@@ -12792,8 +13793,11 @@
       <c r="H324" s="1" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I324" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>809</v>
       </c>
@@ -12818,8 +13822,11 @@
       <c r="H325" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I325" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>810</v>
       </c>
@@ -12844,8 +13851,11 @@
       <c r="H326" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I326" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>811</v>
       </c>
@@ -12870,8 +13880,11 @@
       <c r="H327" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I327" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>814</v>
       </c>
@@ -12896,8 +13909,11 @@
       <c r="H328" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I328" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>817</v>
       </c>
@@ -12922,8 +13938,11 @@
       <c r="H329" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I329" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>820</v>
       </c>
@@ -12948,8 +13967,11 @@
       <c r="H330" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I330" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>824</v>
       </c>
@@ -12974,8 +13996,11 @@
       <c r="H331" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I331" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>827</v>
       </c>
@@ -13000,8 +14025,11 @@
       <c r="H332" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I332" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>828</v>
       </c>
@@ -13026,8 +14054,11 @@
       <c r="H333" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I333" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>829</v>
       </c>
@@ -13052,8 +14083,11 @@
       <c r="H334" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I334" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>832</v>
       </c>
@@ -13078,8 +14112,11 @@
       <c r="H335" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I335" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>836</v>
       </c>
@@ -13104,8 +14141,11 @@
       <c r="H336" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I336" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>837</v>
       </c>
@@ -13130,8 +14170,11 @@
       <c r="H337" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I337" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>840</v>
       </c>
@@ -13156,8 +14199,11 @@
       <c r="H338" s="1" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I338" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>843</v>
       </c>
@@ -13182,8 +14228,11 @@
       <c r="H339" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I339" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>846</v>
       </c>
@@ -13208,8 +14257,11 @@
       <c r="H340" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I340" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>849</v>
       </c>
@@ -13234,8 +14286,11 @@
       <c r="H341" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I341" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>850</v>
       </c>
@@ -13260,8 +14315,11 @@
       <c r="H342" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I342" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>851</v>
       </c>
@@ -13286,8 +14344,11 @@
       <c r="H343" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I343" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>852</v>
       </c>
@@ -13312,8 +14373,11 @@
       <c r="H344" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I344" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>855</v>
       </c>
@@ -13338,8 +14402,11 @@
       <c r="H345" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I345" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>858</v>
       </c>
@@ -13364,8 +14431,11 @@
       <c r="H346" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I346" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>859</v>
       </c>
@@ -13390,8 +14460,11 @@
       <c r="H347" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I347" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>860</v>
       </c>
@@ -13416,8 +14489,11 @@
       <c r="H348" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I348" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>861</v>
       </c>
@@ -13442,8 +14518,11 @@
       <c r="H349" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I349" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>862</v>
       </c>
@@ -13468,8 +14547,11 @@
       <c r="H350" s="1" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I350" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>865</v>
       </c>
@@ -13494,8 +14576,11 @@
       <c r="H351" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="352" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I351" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>866</v>
       </c>
@@ -13520,8 +14605,11 @@
       <c r="H352" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I352" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>869</v>
       </c>
@@ -13546,8 +14634,11 @@
       <c r="H353" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="354" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I353" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>870</v>
       </c>
@@ -13572,8 +14663,11 @@
       <c r="H354" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="355" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I354" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>871</v>
       </c>
@@ -13598,8 +14692,11 @@
       <c r="H355" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="356" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I355" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>872</v>
       </c>
@@ -13624,8 +14721,11 @@
       <c r="H356" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="357" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I356" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>875</v>
       </c>
@@ -13650,8 +14750,11 @@
       <c r="H357" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I357" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>878</v>
       </c>
@@ -13676,8 +14779,11 @@
       <c r="H358" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="359" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I358" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>879</v>
       </c>
@@ -13702,8 +14808,11 @@
       <c r="H359" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="360" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I359" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>880</v>
       </c>
@@ -13728,8 +14837,11 @@
       <c r="H360" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="361" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I360" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>881</v>
       </c>
@@ -13754,8 +14866,11 @@
       <c r="H361" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="362" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I361" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>884</v>
       </c>
@@ -13780,8 +14895,11 @@
       <c r="H362" s="1" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="363" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I362" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>887</v>
       </c>
@@ -13806,8 +14924,11 @@
       <c r="H363" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="364" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I363" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>890</v>
       </c>
@@ -13832,8 +14953,11 @@
       <c r="H364" s="1" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="365" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I364" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>893</v>
       </c>
@@ -13858,8 +14982,11 @@
       <c r="H365" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="366" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I365" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>894</v>
       </c>
@@ -13884,8 +15011,11 @@
       <c r="H366" s="1" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="367" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I366" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>897</v>
       </c>
@@ -13910,8 +15040,11 @@
       <c r="H367" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="368" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I367" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>898</v>
       </c>
@@ -13936,8 +15069,11 @@
       <c r="H368" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="369" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I368" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>899</v>
       </c>
@@ -13962,8 +15098,11 @@
       <c r="H369" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="370" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I369" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>902</v>
       </c>
@@ -13988,8 +15127,11 @@
       <c r="H370" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="371" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I370" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>905</v>
       </c>
@@ -14014,8 +15156,11 @@
       <c r="H371" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="372" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I371" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>908</v>
       </c>
@@ -14040,8 +15185,11 @@
       <c r="H372" s="1" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="373" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I372" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>911</v>
       </c>
@@ -14066,8 +15214,11 @@
       <c r="H373" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="374" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I373" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>914</v>
       </c>
@@ -14092,8 +15243,11 @@
       <c r="H374" s="1" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="375" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I374" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>917</v>
       </c>
@@ -14118,8 +15272,11 @@
       <c r="H375" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="376" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I375" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>920</v>
       </c>
@@ -14144,8 +15301,11 @@
       <c r="H376" s="1" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="377" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I376" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>923</v>
       </c>
@@ -14170,8 +15330,11 @@
       <c r="H377" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="378" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I377" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>924</v>
       </c>
@@ -14196,8 +15359,11 @@
       <c r="H378" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="379" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I378" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>925</v>
       </c>
@@ -14222,8 +15388,11 @@
       <c r="H379" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="380" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I379" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>926</v>
       </c>
@@ -14248,8 +15417,11 @@
       <c r="H380" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="381" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I380" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>927</v>
       </c>
@@ -14274,8 +15446,11 @@
       <c r="H381" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="382" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I381" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>928</v>
       </c>
@@ -14300,8 +15475,11 @@
       <c r="H382" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="383" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I382" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>931</v>
       </c>
@@ -14326,8 +15504,11 @@
       <c r="H383" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="384" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I383" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>932</v>
       </c>
@@ -14352,8 +15533,11 @@
       <c r="H384" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="385" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I384" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>933</v>
       </c>
@@ -14378,8 +15562,11 @@
       <c r="H385" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="386" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I385" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>934</v>
       </c>
@@ -14404,8 +15591,11 @@
       <c r="H386" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="387" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I386" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>935</v>
       </c>
@@ -14430,8 +15620,11 @@
       <c r="H387" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="388" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I387" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>936</v>
       </c>
@@ -14456,8 +15649,11 @@
       <c r="H388" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="389" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I388" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>937</v>
       </c>
@@ -14482,8 +15678,11 @@
       <c r="H389" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="390" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I389" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>938</v>
       </c>
@@ -14508,8 +15707,11 @@
       <c r="H390" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="391" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I390" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>941</v>
       </c>
@@ -14534,8 +15736,11 @@
       <c r="H391" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="392" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I391" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>944</v>
       </c>
@@ -14560,8 +15765,11 @@
       <c r="H392" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="393" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I392" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>948</v>
       </c>
@@ -14586,8 +15794,11 @@
       <c r="H393" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="394" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I393" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>949</v>
       </c>
@@ -14612,8 +15823,11 @@
       <c r="H394" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="395" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I394" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>950</v>
       </c>
@@ -14638,8 +15852,11 @@
       <c r="H395" s="1" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="396" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I395" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>954</v>
       </c>
@@ -14664,8 +15881,11 @@
       <c r="H396" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="397" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I396" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>955</v>
       </c>
@@ -14690,8 +15910,11 @@
       <c r="H397" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="398" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I397" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>956</v>
       </c>
@@ -14716,8 +15939,11 @@
       <c r="H398" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="399" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I398" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>957</v>
       </c>
@@ -14742,8 +15968,11 @@
       <c r="H399" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="400" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I399" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>958</v>
       </c>
@@ -14768,8 +15997,11 @@
       <c r="H400" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="401" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I400" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>959</v>
       </c>
@@ -14794,8 +16026,11 @@
       <c r="H401" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="402" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I401" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>960</v>
       </c>
@@ -14820,8 +16055,11 @@
       <c r="H402" s="1" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="403" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I402" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>961</v>
       </c>
@@ -14846,8 +16084,11 @@
       <c r="H403" s="1" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="404" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I403" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>964</v>
       </c>
@@ -14872,8 +16113,11 @@
       <c r="H404" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="405" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I404" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>965</v>
       </c>
@@ -14898,8 +16142,11 @@
       <c r="H405" s="1" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="406" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I405" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>968</v>
       </c>
@@ -14924,8 +16171,11 @@
       <c r="H406" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="407" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I406" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>969</v>
       </c>
@@ -14950,8 +16200,11 @@
       <c r="H407" s="1" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="408" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I407" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>972</v>
       </c>
@@ -14976,8 +16229,11 @@
       <c r="H408" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="409" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I408" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>973</v>
       </c>
@@ -15002,8 +16258,11 @@
       <c r="H409" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="410" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I409" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>974</v>
       </c>
@@ -15028,8 +16287,11 @@
       <c r="H410" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="411" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I410" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>975</v>
       </c>
@@ -15054,8 +16316,11 @@
       <c r="H411" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="412" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I411" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>976</v>
       </c>
@@ -15080,8 +16345,11 @@
       <c r="H412" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="413" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I412" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>977</v>
       </c>
@@ -15106,8 +16374,11 @@
       <c r="H413" s="1" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="414" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I413" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>980</v>
       </c>
@@ -15132,8 +16403,11 @@
       <c r="H414" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="415" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I414" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>981</v>
       </c>
@@ -15158,8 +16432,11 @@
       <c r="H415" s="1" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="416" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I415" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>984</v>
       </c>
@@ -15184,8 +16461,11 @@
       <c r="H416" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="417" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I416" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>985</v>
       </c>
@@ -15210,8 +16490,11 @@
       <c r="H417" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="418" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I417" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>986</v>
       </c>
@@ -15236,8 +16519,11 @@
       <c r="H418" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="419" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I418" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>987</v>
       </c>
@@ -15262,8 +16548,11 @@
       <c r="H419" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="420" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I419" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>988</v>
       </c>
@@ -15288,8 +16577,11 @@
       <c r="H420" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="421" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I420" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>991</v>
       </c>
@@ -15314,8 +16606,11 @@
       <c r="H421" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="422" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I421" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>992</v>
       </c>
@@ -15340,8 +16635,11 @@
       <c r="H422" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="423" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I422" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>993</v>
       </c>
@@ -15366,8 +16664,11 @@
       <c r="H423" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="424" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I423" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>996</v>
       </c>
@@ -15392,8 +16693,11 @@
       <c r="H424" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="425" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I424" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>997</v>
       </c>
@@ -15418,8 +16722,11 @@
       <c r="H425" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I425" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>998</v>
       </c>
@@ -15444,8 +16751,11 @@
       <c r="H426" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="427" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I426" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>999</v>
       </c>
@@ -15470,8 +16780,11 @@
       <c r="H427" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="428" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I427" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>1000</v>
       </c>
@@ -15496,8 +16809,11 @@
       <c r="H428" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I428" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>1001</v>
       </c>
@@ -15522,8 +16838,11 @@
       <c r="H429" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I429" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>1002</v>
       </c>
@@ -15548,8 +16867,11 @@
       <c r="H430" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="431" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I430" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>1003</v>
       </c>
@@ -15574,8 +16896,11 @@
       <c r="H431" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I431" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>1004</v>
       </c>
@@ -15600,8 +16925,11 @@
       <c r="H432" s="1" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="433" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I432" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>1005</v>
       </c>
@@ -15626,8 +16954,11 @@
       <c r="H433" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="434" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I433" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>1006</v>
       </c>
@@ -15652,8 +16983,11 @@
       <c r="H434" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="435" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I434" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>1007</v>
       </c>
@@ -15678,8 +17012,11 @@
       <c r="H435" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I435" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>1008</v>
       </c>
@@ -15704,8 +17041,11 @@
       <c r="H436" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="437" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I436" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>1009</v>
       </c>
@@ -15730,8 +17070,11 @@
       <c r="H437" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="438" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I437" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15756,8 +17099,11 @@
       <c r="H438" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="439" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I438" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>1011</v>
       </c>
@@ -15782,8 +17128,11 @@
       <c r="H439" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="440" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I439" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>1012</v>
       </c>
@@ -15808,8 +17157,11 @@
       <c r="H440" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="441" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I440" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>1015</v>
       </c>
@@ -15834,8 +17186,11 @@
       <c r="H441" s="1" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="442" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I441" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>1016</v>
       </c>
@@ -15860,8 +17215,11 @@
       <c r="H442" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="443" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I442" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>1017</v>
       </c>
@@ -15886,8 +17244,11 @@
       <c r="H443" s="1" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="444" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I443" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>1021</v>
       </c>
@@ -15912,8 +17273,11 @@
       <c r="H444" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="445" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I444" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>1022</v>
       </c>
@@ -15938,8 +17302,11 @@
       <c r="H445" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="446" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I445" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>1025</v>
       </c>
@@ -15964,8 +17331,11 @@
       <c r="H446" s="1" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="447" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I446" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>1028</v>
       </c>
@@ -15990,8 +17360,11 @@
       <c r="H447" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="448" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I447" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>1031</v>
       </c>
@@ -16016,8 +17389,11 @@
       <c r="H448" s="1" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="449" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I448" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>1034</v>
       </c>
@@ -16042,8 +17418,11 @@
       <c r="H449" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="450" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I449" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>1035</v>
       </c>
@@ -16068,8 +17447,11 @@
       <c r="H450" s="1" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="451" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I450" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>1038</v>
       </c>
@@ -16094,8 +17476,11 @@
       <c r="H451" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="452" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I451" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>1041</v>
       </c>
@@ -16120,8 +17505,11 @@
       <c r="H452" s="1" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="453" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I452" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>1044</v>
       </c>
@@ -16146,8 +17534,11 @@
       <c r="H453" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="454" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I453" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>1045</v>
       </c>
@@ -16172,8 +17563,11 @@
       <c r="H454" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="455" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I454" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>1048</v>
       </c>
@@ -16198,8 +17592,11 @@
       <c r="H455" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="456" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I455" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>1051</v>
       </c>
@@ -16224,8 +17621,11 @@
       <c r="H456" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="457" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I456" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>1054</v>
       </c>
@@ -16250,8 +17650,11 @@
       <c r="H457" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="458" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I457" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>1057</v>
       </c>
@@ -16276,8 +17679,11 @@
       <c r="H458" s="1" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="459" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I458" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>1060</v>
       </c>
@@ -16302,8 +17708,11 @@
       <c r="H459" s="1" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="460" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I459" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>1063</v>
       </c>
@@ -16328,8 +17737,11 @@
       <c r="H460" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="461" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I460" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>1064</v>
       </c>
@@ -16354,8 +17766,11 @@
       <c r="H461" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="462" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I461" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16380,8 +17795,11 @@
       <c r="H462" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="463" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I462" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>1066</v>
       </c>
@@ -16406,8 +17824,11 @@
       <c r="H463" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="464" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I463" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>1067</v>
       </c>
@@ -16432,8 +17853,11 @@
       <c r="H464" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="465" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I464" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>1068</v>
       </c>
@@ -16458,8 +17882,11 @@
       <c r="H465" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="466" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I465" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>1069</v>
       </c>
@@ -16484,8 +17911,11 @@
       <c r="H466" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="467" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I466" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>1070</v>
       </c>
@@ -16510,8 +17940,11 @@
       <c r="H467" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="468" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I467" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>1071</v>
       </c>
@@ -16536,8 +17969,11 @@
       <c r="H468" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="469" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I468" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>1072</v>
       </c>
@@ -16562,8 +17998,11 @@
       <c r="H469" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="470" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I469" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>1073</v>
       </c>
@@ -16588,8 +18027,11 @@
       <c r="H470" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="471" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I470" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>1076</v>
       </c>
@@ -16614,8 +18056,11 @@
       <c r="H471" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="472" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I471" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>1077</v>
       </c>
@@ -16640,8 +18085,11 @@
       <c r="H472" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="473" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I472" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>1080</v>
       </c>
@@ -16666,8 +18114,11 @@
       <c r="H473" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="474" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I473" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>1083</v>
       </c>
@@ -16692,8 +18143,11 @@
       <c r="H474" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="475" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I474" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>1087</v>
       </c>
@@ -16718,8 +18172,11 @@
       <c r="H475" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="476" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I475" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>1088</v>
       </c>
@@ -16744,8 +18201,11 @@
       <c r="H476" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="477" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I476" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>1091</v>
       </c>
@@ -16770,8 +18230,11 @@
       <c r="H477" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="478" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I477" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>1092</v>
       </c>
@@ -16796,8 +18259,11 @@
       <c r="H478" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="479" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I478" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>1093</v>
       </c>
@@ -16822,8 +18288,11 @@
       <c r="H479" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="480" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I479" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>1096</v>
       </c>
@@ -16848,8 +18317,11 @@
       <c r="H480" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="481" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I480" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>1099</v>
       </c>
@@ -16874,8 +18346,11 @@
       <c r="H481" s="1" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="482" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I481" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>1100</v>
       </c>
@@ -16900,8 +18375,11 @@
       <c r="H482" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="483" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I482" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>1104</v>
       </c>
@@ -16926,8 +18404,11 @@
       <c r="H483" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="484" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I483" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>1107</v>
       </c>
@@ -16952,8 +18433,11 @@
       <c r="H484" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="485" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I484" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>1108</v>
       </c>
@@ -16978,8 +18462,11 @@
       <c r="H485" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="486" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I485" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>1111</v>
       </c>
@@ -17004,8 +18491,11 @@
       <c r="H486" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="487" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I486" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>1112</v>
       </c>
@@ -17030,8 +18520,11 @@
       <c r="H487" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="488" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I487" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>1113</v>
       </c>
@@ -17056,8 +18549,11 @@
       <c r="H488" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="489" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I488" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>1114</v>
       </c>
@@ -17082,8 +18578,11 @@
       <c r="H489" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="490" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I489" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>1115</v>
       </c>
@@ -17108,8 +18607,11 @@
       <c r="H490" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="491" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I490" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>1116</v>
       </c>
@@ -17134,8 +18636,11 @@
       <c r="H491" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="492" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I491" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>1117</v>
       </c>
@@ -17160,8 +18665,11 @@
       <c r="H492" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="493" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I492" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>1118</v>
       </c>
@@ -17186,8 +18694,11 @@
       <c r="H493" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="494" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I493" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>1119</v>
       </c>
@@ -17212,8 +18723,11 @@
       <c r="H494" s="1" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="495" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I494" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>1120</v>
       </c>
@@ -17238,8 +18752,11 @@
       <c r="H495" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="496" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I495" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>1121</v>
       </c>
@@ -17264,8 +18781,11 @@
       <c r="H496" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="497" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I496" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>1122</v>
       </c>
@@ -17290,8 +18810,11 @@
       <c r="H497" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="498" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I497" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>1123</v>
       </c>
@@ -17316,8 +18839,11 @@
       <c r="H498" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="499" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I498" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>1124</v>
       </c>
@@ -17342,8 +18868,11 @@
       <c r="H499" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="500" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I499" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>1125</v>
       </c>
@@ -17368,8 +18897,11 @@
       <c r="H500" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="501" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I500" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>1126</v>
       </c>
@@ -17394,8 +18926,11 @@
       <c r="H501" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="502" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I501" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>1129</v>
       </c>
@@ -17420,8 +18955,11 @@
       <c r="H502" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="503" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I502" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>1130</v>
       </c>
@@ -17446,8 +18984,11 @@
       <c r="H503" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="504" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I503" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>1131</v>
       </c>
@@ -17472,8 +19013,11 @@
       <c r="H504" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="505" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I504" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>1132</v>
       </c>
@@ -17498,8 +19042,11 @@
       <c r="H505" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="506" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I505" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>1133</v>
       </c>
@@ -17524,8 +19071,11 @@
       <c r="H506" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="507" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I506" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>1134</v>
       </c>
@@ -17550,8 +19100,11 @@
       <c r="H507" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="508" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I507" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>1135</v>
       </c>
@@ -17576,8 +19129,11 @@
       <c r="H508" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="509" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I508" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>1136</v>
       </c>
@@ -17602,8 +19158,11 @@
       <c r="H509" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="510" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I509" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>1137</v>
       </c>
@@ -17628,8 +19187,11 @@
       <c r="H510" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="511" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I510" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>1138</v>
       </c>
@@ -17654,8 +19216,11 @@
       <c r="H511" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="512" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I511" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>1139</v>
       </c>
@@ -17680,8 +19245,11 @@
       <c r="H512" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="513" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I512" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>1140</v>
       </c>
@@ -17706,8 +19274,11 @@
       <c r="H513" s="1" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="514" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I513" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>1141</v>
       </c>
@@ -17732,8 +19303,11 @@
       <c r="H514" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I514" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>1142</v>
       </c>
@@ -17758,8 +19332,11 @@
       <c r="H515" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="516" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I515" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>1143</v>
       </c>
@@ -17784,8 +19361,11 @@
       <c r="H516" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="517" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I516" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>1144</v>
       </c>
@@ -17810,8 +19390,11 @@
       <c r="H517" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="518" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I517" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>1145</v>
       </c>
@@ -17836,8 +19419,11 @@
       <c r="H518" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="519" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I518" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>1146</v>
       </c>
@@ -17862,8 +19448,11 @@
       <c r="H519" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="520" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I519" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>1147</v>
       </c>
@@ -17888,8 +19477,11 @@
       <c r="H520" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="521" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I520" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>1148</v>
       </c>
@@ -17914,8 +19506,11 @@
       <c r="H521" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="522" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I521" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>1151</v>
       </c>
@@ -17940,8 +19535,11 @@
       <c r="H522" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="523" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I522" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>1152</v>
       </c>
@@ -17966,8 +19564,11 @@
       <c r="H523" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="524" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I523" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>1153</v>
       </c>
@@ -17992,8 +19593,11 @@
       <c r="H524" s="1" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="525" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I524" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>1154</v>
       </c>
@@ -18018,8 +19622,11 @@
       <c r="H525" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="526" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I525" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18044,8 +19651,11 @@
       <c r="H526" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="527" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I526" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>1156</v>
       </c>
@@ -18070,8 +19680,11 @@
       <c r="H527" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="528" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I527" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>1159</v>
       </c>
@@ -18096,8 +19709,11 @@
       <c r="H528" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="529" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I528" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>1162</v>
       </c>
@@ -18122,8 +19738,11 @@
       <c r="H529" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="530" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I529" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>1165</v>
       </c>
@@ -18148,8 +19767,11 @@
       <c r="H530" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="531" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I530" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>1168</v>
       </c>
@@ -18174,8 +19796,11 @@
       <c r="H531" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="532" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I531" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>1171</v>
       </c>
@@ -18200,8 +19825,11 @@
       <c r="H532" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="533" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I532" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>1174</v>
       </c>
@@ -18226,8 +19854,11 @@
       <c r="H533" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="534" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I533" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>1177</v>
       </c>
@@ -18252,8 +19883,11 @@
       <c r="H534" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="535" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I534" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>1180</v>
       </c>
@@ -18278,8 +19912,11 @@
       <c r="H535" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="536" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I535" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>1183</v>
       </c>
@@ -18304,8 +19941,11 @@
       <c r="H536" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="537" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I536" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>1184</v>
       </c>
@@ -18330,8 +19970,11 @@
       <c r="H537" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="538" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I537" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>1187</v>
       </c>
@@ -18356,8 +19999,11 @@
       <c r="H538" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="539" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I538" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>1190</v>
       </c>
@@ -18382,8 +20028,11 @@
       <c r="H539" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="540" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I539" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>1193</v>
       </c>
@@ -18408,8 +20057,11 @@
       <c r="H540" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="541" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I540" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>1196</v>
       </c>
@@ -18434,8 +20086,11 @@
       <c r="H541" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="542" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I541" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>1200</v>
       </c>
@@ -18460,8 +20115,11 @@
       <c r="H542" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="543" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I542" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>1201</v>
       </c>
@@ -18486,8 +20144,11 @@
       <c r="H543" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="544" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I543" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>1204</v>
       </c>
@@ -18512,8 +20173,11 @@
       <c r="H544" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="545" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I544" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>1205</v>
       </c>
@@ -18538,8 +20202,11 @@
       <c r="H545" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="546" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I545" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>1206</v>
       </c>
@@ -18564,8 +20231,11 @@
       <c r="H546" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="547" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I546" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>1207</v>
       </c>
@@ -18590,8 +20260,11 @@
       <c r="H547" s="1" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="548" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I547" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>1208</v>
       </c>
@@ -18616,8 +20289,11 @@
       <c r="H548" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="549" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I548" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>1209</v>
       </c>
@@ -18642,8 +20318,11 @@
       <c r="H549" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="550" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I549" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>1210</v>
       </c>
@@ -18668,8 +20347,11 @@
       <c r="H550" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="551" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I550" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>1211</v>
       </c>
@@ -18694,8 +20376,11 @@
       <c r="H551" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="552" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I551" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>1212</v>
       </c>
@@ -18720,8 +20405,11 @@
       <c r="H552" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="553" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I552" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>1213</v>
       </c>
@@ -18746,8 +20434,11 @@
       <c r="H553" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="554" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I553" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>1217</v>
       </c>
@@ -18772,8 +20463,11 @@
       <c r="H554" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="555" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I554" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>1218</v>
       </c>
@@ -18798,8 +20492,11 @@
       <c r="H555" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="556" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I555" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>1219</v>
       </c>
@@ -18824,8 +20521,11 @@
       <c r="H556" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="557" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I556" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>1220</v>
       </c>
@@ -18850,8 +20550,11 @@
       <c r="H557" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="558" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I557" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>1221</v>
       </c>
@@ -18876,8 +20579,11 @@
       <c r="H558" s="1" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="559" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I558" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>1224</v>
       </c>
@@ -18902,8 +20608,11 @@
       <c r="H559" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="560" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I559" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>1228</v>
       </c>
@@ -18928,8 +20637,11 @@
       <c r="H560" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="561" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I560" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>1232</v>
       </c>
@@ -18954,8 +20666,11 @@
       <c r="H561" s="1" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="562" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I561" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>1233</v>
       </c>
@@ -18980,8 +20695,11 @@
       <c r="H562" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="563" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I562" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>1234</v>
       </c>
@@ -19006,8 +20724,11 @@
       <c r="H563" s="1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="564" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I563" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>1235</v>
       </c>
@@ -19032,8 +20753,11 @@
       <c r="H564" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I564" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>1236</v>
       </c>
@@ -19058,8 +20782,11 @@
       <c r="H565" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="566" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I565" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>1237</v>
       </c>
@@ -19084,8 +20811,11 @@
       <c r="H566" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="567" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I566" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>1238</v>
       </c>
@@ -19110,8 +20840,11 @@
       <c r="H567" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I567" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>1239</v>
       </c>
@@ -19136,8 +20869,11 @@
       <c r="H568" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="569" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I568" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>1240</v>
       </c>
@@ -19162,8 +20898,11 @@
       <c r="H569" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="570" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I569" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>1241</v>
       </c>
@@ -19188,8 +20927,11 @@
       <c r="H570" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="571" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I570" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>1244</v>
       </c>
@@ -19214,8 +20956,11 @@
       <c r="H571" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="572" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I571" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>1247</v>
       </c>
@@ -19240,8 +20985,11 @@
       <c r="H572" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="573" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I572" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>1248</v>
       </c>
@@ -19265,6 +21013,9 @@
       </c>
       <c r="H573" s="1" t="s">
         <v>680</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1333</v>
       </c>
     </row>
   </sheetData>

--- a/BE/data/Courses Masterdata.xlsx
+++ b/BE/data/Courses Masterdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nagarro-my.sharepoint.com/personal/shubham_kargeti_nagarro_com/Documents/Desktop/AI Learning App/BE-MasterBranch/BE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{31936DB6-1694-447D-B4C8-C5DD35CD232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105C8857-5D32-48D7-B956-DCB716117EB6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{31936DB6-1694-447D-B4C8-C5DD35CD232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5196A32B-F3DD-4226-8418-5B02AE063149}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4386,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21011,7 +21011,7 @@
       <c r="G573" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="H573" s="1" t="s">
+      <c r="H573" s="2" t="s">
         <v>680</v>
       </c>
       <c r="I573" t="s">
@@ -21044,6 +21044,7 @@
     <hyperlink ref="H23" r:id="rId22" xr:uid="{6872C5E7-F542-4596-8360-5C1C15DA7087}"/>
     <hyperlink ref="H24" r:id="rId23" xr:uid="{23C4D713-DDC6-4D60-ADA0-A7EFAE14E106}"/>
     <hyperlink ref="H25" r:id="rId24" xr:uid="{8C393239-12C9-4FA0-A228-E5E5B3FA7E69}"/>
+    <hyperlink ref="H573" r:id="rId25" xr:uid="{C711438C-D580-4A4E-8582-2AEFD51DE57A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
